--- a/data/estoque/estoque_inicial.xlsx
+++ b/data/estoque/estoque_inicial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIL\Desktop\Projeto_leao\V4\simulador_dre_streamlit\data\estoque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133A345B-4D8D-4B9F-86E5-75AEECCF5138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BB90E-08D6-4832-95B3-1F5018C1E880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{53266D9E-169E-45B3-9007-3FBFF3D42099}"/>
+    <workbookView xWindow="28680" yWindow="-3600" windowWidth="16440" windowHeight="29040" xr2:uid="{53266D9E-169E-45B3-9007-3FBFF3D42099}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -314,9 +314,6 @@
     <t>CHA LEAO MOR+HORT DRINKS 2GX10UN CX12</t>
   </si>
   <si>
-    <t>Estoque inicial Ago UC</t>
-  </si>
-  <si>
     <t>2127066027</t>
   </si>
   <si>
@@ -690,6 +687,9 @@
   </si>
   <si>
     <t>DRINKS 12X10</t>
+  </si>
+  <si>
+    <t>Estoque Inicial</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -827,8 +827,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,7 +1146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E15F45-4001-42A6-A8B1-02399349643A}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1156,35 +1158,35 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="E2" s="9">
         <v>5654</v>
@@ -1192,16 +1194,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="10">
         <v>21411</v>
@@ -1209,16 +1211,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="10">
         <v>765.5</v>
@@ -1226,16 +1228,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="10">
         <v>1827</v>
@@ -1243,16 +1245,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="E6" s="10">
         <v>1244</v>
@@ -1260,16 +1262,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E7" s="10">
         <v>825</v>
@@ -1277,16 +1279,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E8" s="10">
         <v>350</v>
@@ -1294,16 +1296,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E9" s="10">
         <v>614</v>
@@ -1311,16 +1313,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E10" s="10">
         <v>703</v>
@@ -1328,16 +1330,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E11" s="10">
         <v>594</v>
@@ -1345,16 +1347,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E12" s="10">
         <v>6587</v>
@@ -1362,16 +1364,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E13" s="10">
         <v>643</v>
@@ -1379,16 +1381,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="10">
         <v>1447</v>
@@ -1396,16 +1398,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" s="10">
         <v>2050</v>
@@ -1413,16 +1415,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E16" s="10">
         <v>262</v>
@@ -1430,16 +1432,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E17" s="10">
         <v>3034</v>
@@ -1447,16 +1449,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E18" s="10">
         <v>1295.066</v>
@@ -1464,16 +1466,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" s="10">
         <v>1028</v>
@@ -1481,16 +1483,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20" s="10">
         <v>695.1</v>
@@ -1498,16 +1500,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21" s="10">
         <v>590.06600000000003</v>
@@ -1515,16 +1517,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="E22" s="10">
         <v>3106</v>
@@ -1532,16 +1534,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" s="10">
         <v>16480</v>
@@ -1549,16 +1551,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E24" s="10">
         <v>31296</v>
@@ -1566,16 +1568,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E25" s="10">
         <v>14172</v>
@@ -1583,16 +1585,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E26" s="10">
         <v>9748</v>
@@ -1600,16 +1602,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E27" s="10">
         <v>11327</v>
@@ -1617,16 +1619,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E28" s="10">
         <v>3398</v>
@@ -1634,16 +1636,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E29" s="10">
         <v>18779</v>
@@ -1651,16 +1653,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E30" s="10">
         <v>3930</v>
@@ -1668,16 +1670,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E31" s="10">
         <v>1537</v>
@@ -1685,16 +1687,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E32" s="10">
         <v>6356</v>
@@ -1702,16 +1704,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E33" s="10">
         <v>660</v>
@@ -1719,16 +1721,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E34" s="10">
         <v>805</v>
@@ -1736,16 +1738,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E35" s="10">
         <v>188</v>
@@ -1753,16 +1755,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E36" s="10">
         <v>3922</v>
@@ -1770,16 +1772,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E37" s="10">
         <v>1646</v>
@@ -1787,16 +1789,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E38" s="10">
         <v>687.24900000000002</v>
@@ -1804,16 +1806,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E39" s="10">
         <v>3331.0549999999998</v>
@@ -1821,16 +1823,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E40" s="10">
         <v>533.36</v>
@@ -1838,16 +1840,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E41" s="10">
         <v>2006.1379999999999</v>
@@ -1855,16 +1857,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E42" s="10">
         <v>130</v>
@@ -1872,16 +1874,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E43" s="10">
         <v>126</v>
@@ -1889,16 +1891,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E44" s="10">
         <v>96</v>
@@ -1906,16 +1908,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E45" s="10">
         <v>152</v>
@@ -1923,16 +1925,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E46" s="10">
         <v>1290.0830000000001</v>
@@ -1940,16 +1942,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E47" s="10">
         <v>7822.7</v>
@@ -1957,16 +1959,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E48" s="10">
         <v>8128.32</v>
@@ -1974,16 +1976,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E49" s="10">
         <v>6116</v>
@@ -1991,16 +1993,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E50" s="10">
         <v>6017</v>
@@ -2008,16 +2010,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E51" s="10">
         <v>632</v>
@@ -2025,16 +2027,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E52" s="10">
         <v>520</v>
@@ -2042,16 +2044,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E53" s="10">
         <v>832</v>
@@ -2059,16 +2061,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E54" s="10">
         <v>783</v>
@@ -2076,16 +2078,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E55" s="10">
         <v>9671.8329999999987</v>
@@ -2093,16 +2095,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E56" s="10">
         <v>19227</v>
@@ -2110,16 +2112,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E57" s="10">
         <v>7456.1660000000002</v>
@@ -2127,16 +2129,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E58" s="10">
         <v>2138.75</v>
@@ -2144,16 +2146,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E59" s="10">
         <v>12513</v>
@@ -2161,16 +2163,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E60" s="10">
         <v>8700.0829999999987</v>
@@ -2178,16 +2180,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E61" s="10">
         <v>11344.333000000001</v>
@@ -2195,16 +2197,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E62" s="10">
         <v>633</v>
@@ -2212,16 +2214,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E63" s="10">
         <v>437</v>
@@ -2229,16 +2231,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E64" s="10">
         <v>264</v>
@@ -2246,16 +2248,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E65" s="10">
         <v>278</v>
@@ -2263,16 +2265,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E66" s="10">
         <v>1477.75</v>
@@ -2280,16 +2282,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E67" s="10">
         <v>1234.0999999999999</v>
@@ -2297,16 +2299,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E68" s="10">
         <v>1051.45</v>
@@ -2314,16 +2316,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E69" s="10">
         <v>1478</v>
@@ -2331,16 +2333,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E70" s="10">
         <v>1558</v>
@@ -2348,16 +2350,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E71" s="10">
         <v>3648.1</v>
@@ -2365,16 +2367,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E72" s="10">
         <v>1506.15</v>
@@ -2382,16 +2384,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E73" s="10">
         <v>405</v>
@@ -2399,16 +2401,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E74" s="10">
         <v>571.20000000000005</v>
@@ -2416,16 +2418,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E75" s="10">
         <v>2308</v>
@@ -2433,16 +2435,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E76" s="10">
         <v>1461.05</v>
@@ -2450,16 +2452,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E77" s="10">
         <v>2313</v>
@@ -2467,16 +2469,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E78" s="10">
         <v>4006</v>
@@ -2484,16 +2486,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E79" s="10">
         <v>3334.2489999999998</v>
@@ -2501,16 +2503,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E80" s="10">
         <v>9083</v>
@@ -2518,16 +2520,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E81" s="10">
         <v>872.63300000000004</v>
@@ -2535,16 +2537,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E82" s="10">
         <v>2934.25</v>
@@ -2552,16 +2554,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E83" s="10">
         <v>3132.5</v>
@@ -2569,16 +2571,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E84" s="10">
         <v>1234.58</v>
@@ -2586,16 +2588,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E85" s="10">
         <v>335</v>
@@ -2603,16 +2605,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E86" s="10">
         <v>515.83299999999997</v>
@@ -2620,16 +2622,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E87" s="10">
         <v>1911.1660000000002</v>
@@ -2637,16 +2639,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E88" s="10">
         <v>1693.75</v>
@@ -2654,16 +2656,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E89" s="10">
         <v>1186.6659999999999</v>
@@ -2671,16 +2673,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E90" s="10">
         <v>1476.6660000000002</v>
@@ -2688,16 +2690,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E91" s="10">
         <v>3623</v>
@@ -2705,16 +2707,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E92" s="10">
         <v>5504.0830000000005</v>

--- a/data/estoque/estoque_inicial.xlsx
+++ b/data/estoque/estoque_inicial.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIL\Desktop\Projeto_leao\V4\simulador_dre_streamlit\data\estoque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BB90E-08D6-4832-95B3-1F5018C1E880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB11967-0B08-41A5-851A-5DBD417C4003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3600" windowWidth="16440" windowHeight="29040" xr2:uid="{53266D9E-169E-45B3-9007-3FBFF3D42099}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{53266D9E-169E-45B3-9007-3FBFF3D42099}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$92</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1144,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E15F45-4001-42A6-A8B1-02399349643A}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1192,7 @@
         <v>187</v>
       </c>
       <c r="E2" s="9">
-        <v>5654</v>
+        <v>448096.462</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,7 +1209,7 @@
         <v>188</v>
       </c>
       <c r="E3" s="10">
-        <v>21411</v>
+        <v>2092839.6059999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,7 +1226,7 @@
         <v>188</v>
       </c>
       <c r="E4" s="10">
-        <v>765.5</v>
+        <v>74824.562999999995</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1240,7 +1243,7 @@
         <v>188</v>
       </c>
       <c r="E5" s="10">
-        <v>1827</v>
+        <v>59527.313999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1257,7 +1260,7 @@
         <v>187</v>
       </c>
       <c r="E6" s="10">
-        <v>1244</v>
+        <v>98590.732000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,7 +1277,7 @@
         <v>191</v>
       </c>
       <c r="E7" s="10">
-        <v>825</v>
+        <v>8717.7749999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1291,7 +1294,7 @@
         <v>191</v>
       </c>
       <c r="E8" s="10">
-        <v>350</v>
+        <v>3698.4500000000003</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1308,7 +1311,7 @@
         <v>191</v>
       </c>
       <c r="E9" s="10">
-        <v>614</v>
+        <v>6488.1379999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1325,7 +1328,7 @@
         <v>191</v>
       </c>
       <c r="E10" s="10">
-        <v>703</v>
+        <v>7428.6010000000006</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1342,7 +1345,7 @@
         <v>191</v>
       </c>
       <c r="E11" s="10">
-        <v>594</v>
+        <v>6276.7979999999998</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1359,7 +1362,7 @@
         <v>191</v>
       </c>
       <c r="E12" s="10">
-        <v>6587</v>
+        <v>208814.48699999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1376,7 +1379,7 @@
         <v>191</v>
       </c>
       <c r="E13" s="10">
-        <v>643</v>
+        <v>20383.742999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1393,7 +1396,7 @@
         <v>191</v>
       </c>
       <c r="E14" s="10">
-        <v>1447</v>
+        <v>45871.347000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1410,7 +1413,7 @@
         <v>191</v>
       </c>
       <c r="E15" s="10">
-        <v>2050</v>
+        <v>64987.05</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1427,7 +1430,7 @@
         <v>191</v>
       </c>
       <c r="E16" s="10">
-        <v>262</v>
+        <v>8305.6620000000003</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1444,7 +1447,7 @@
         <v>191</v>
       </c>
       <c r="E17" s="10">
-        <v>3034</v>
+        <v>96180.834000000003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1461,7 +1464,7 @@
         <v>191</v>
       </c>
       <c r="E18" s="10">
-        <v>1295.066</v>
+        <v>41054.887266000005</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1478,7 +1481,7 @@
         <v>191</v>
       </c>
       <c r="E19" s="10">
-        <v>1028</v>
+        <v>32588.628000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1495,7 +1498,7 @@
         <v>191</v>
       </c>
       <c r="E20" s="10">
-        <v>695.1</v>
+        <v>22035.365100000003</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1512,7 +1515,7 @@
         <v>191</v>
       </c>
       <c r="E21" s="10">
-        <v>590.06600000000003</v>
+        <v>18705.682266</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1529,7 +1532,7 @@
         <v>195</v>
       </c>
       <c r="E22" s="10">
-        <v>3106</v>
+        <v>39385.699189855586</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1546,7 +1549,7 @@
         <v>195</v>
       </c>
       <c r="E23" s="10">
-        <v>16480</v>
+        <v>208974.99119408242</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1563,7 +1566,7 @@
         <v>195</v>
       </c>
       <c r="E24" s="10">
-        <v>31296</v>
+        <v>396849.59492779151</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1580,7 +1583,7 @@
         <v>195</v>
       </c>
       <c r="E25" s="10">
-        <v>14172</v>
+        <v>179708.34800986265</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1597,7 +1600,7 @@
         <v>195</v>
       </c>
       <c r="E26" s="10">
-        <v>9748</v>
+        <v>123609.72173300458</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1614,7 +1617,7 @@
         <v>195</v>
       </c>
       <c r="E27" s="10">
-        <v>11327</v>
+        <v>143632.26488200072</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1631,7 +1634,7 @@
         <v>195</v>
       </c>
       <c r="E28" s="10">
-        <v>3398</v>
+        <v>14362.803804156392</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1648,7 +1651,7 @@
         <v>195</v>
       </c>
       <c r="E29" s="10">
-        <v>18779</v>
+        <v>79375.836562169774</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1665,7 +1668,7 @@
         <v>195</v>
       </c>
       <c r="E30" s="10">
-        <v>3930</v>
+        <v>16612.11</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1682,7 +1685,7 @@
         <v>195</v>
       </c>
       <c r="E31" s="10">
-        <v>1537</v>
+        <v>6496.6537513208877</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1699,10 +1702,10 @@
         <v>195</v>
       </c>
       <c r="E32" s="10">
-        <v>6356</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26865.797816132439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>123</v>
       </c>
@@ -1716,10 +1719,10 @@
         <v>195</v>
       </c>
       <c r="E33" s="10">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2789.7146882705179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>124</v>
       </c>
@@ -1733,10 +1736,10 @@
         <v>195</v>
       </c>
       <c r="E34" s="10">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3402.606551602677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>125</v>
       </c>
@@ -1750,10 +1753,10 @@
         <v>202</v>
       </c>
       <c r="E35" s="10">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>794.63839999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>126</v>
       </c>
@@ -1767,10 +1770,10 @@
         <v>202</v>
       </c>
       <c r="E36" s="10">
-        <v>3922</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16577.509600000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>127</v>
       </c>
@@ -1784,10 +1787,10 @@
         <v>202</v>
       </c>
       <c r="E37" s="10">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37569.949999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>128</v>
       </c>
@@ -1801,10 +1804,10 @@
         <v>202</v>
       </c>
       <c r="E38" s="10">
-        <v>687.24900000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15686.458425000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>129</v>
       </c>
@@ -1818,10 +1821,10 @@
         <v>202</v>
       </c>
       <c r="E39" s="10">
-        <v>3331.0549999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76031.33037499999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>130</v>
       </c>
@@ -1835,10 +1838,10 @@
         <v>202</v>
       </c>
       <c r="E40" s="10">
-        <v>533.36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12173.941999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>131</v>
       </c>
@@ -1852,10 +1855,10 @@
         <v>202</v>
       </c>
       <c r="E41" s="10">
-        <v>2006.1379999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45790.099849999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>132</v>
       </c>
@@ -1869,10 +1872,10 @@
         <v>202</v>
       </c>
       <c r="E42" s="10">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2967.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>133</v>
       </c>
@@ -1886,10 +1889,10 @@
         <v>202</v>
       </c>
       <c r="E43" s="10">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2875.95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>134</v>
       </c>
@@ -1903,10 +1906,10 @@
         <v>202</v>
       </c>
       <c r="E44" s="10">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2191.1999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>135</v>
       </c>
@@ -1920,10 +1923,10 @@
         <v>202</v>
       </c>
       <c r="E45" s="10">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3469.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>136</v>
       </c>
@@ -1937,10 +1940,10 @@
         <v>202</v>
       </c>
       <c r="E46" s="10">
-        <v>1290.0830000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29446.144475000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>137</v>
       </c>
@@ -1954,10 +1957,13 @@
         <v>207</v>
       </c>
       <c r="E47" s="10">
-        <v>7822.7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>413273.24099999998</v>
+      </c>
+      <c r="F47">
+        <v>52.83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>138</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>207</v>
       </c>
       <c r="E48" s="10">
-        <v>8128.32</v>
+        <v>429419.14559999999</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,7 +1994,7 @@
         <v>207</v>
       </c>
       <c r="E49" s="10">
-        <v>6116</v>
+        <v>323108.27999999997</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2005,7 +2011,7 @@
         <v>207</v>
       </c>
       <c r="E50" s="10">
-        <v>6017</v>
+        <v>317878.11</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2022,7 +2028,7 @@
         <v>207</v>
       </c>
       <c r="E51" s="10">
-        <v>632</v>
+        <v>33388.559999999998</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2039,7 +2045,7 @@
         <v>207</v>
       </c>
       <c r="E52" s="10">
-        <v>520</v>
+        <v>27471.599999999999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2056,7 +2062,7 @@
         <v>207</v>
       </c>
       <c r="E53" s="10">
-        <v>832</v>
+        <v>43954.559999999998</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2073,7 +2079,7 @@
         <v>207</v>
       </c>
       <c r="E54" s="10">
-        <v>783</v>
+        <v>41365.89</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2090,7 +2096,7 @@
         <v>202</v>
       </c>
       <c r="E55" s="10">
-        <v>9671.8329999999987</v>
+        <v>61319.421219999989</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2107,7 +2113,7 @@
         <v>202</v>
       </c>
       <c r="E56" s="10">
-        <v>19227</v>
+        <v>121899.18</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2124,7 +2130,7 @@
         <v>202</v>
       </c>
       <c r="E57" s="10">
-        <v>7456.1660000000002</v>
+        <v>47272.09244</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2141,7 +2147,7 @@
         <v>202</v>
       </c>
       <c r="E58" s="10">
-        <v>2138.75</v>
+        <v>13559.674999999999</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2158,7 +2164,7 @@
         <v>202</v>
       </c>
       <c r="E59" s="10">
-        <v>12513</v>
+        <v>79332.42</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,7 +2181,7 @@
         <v>202</v>
       </c>
       <c r="E60" s="10">
-        <v>8700.0829999999987</v>
+        <v>55158.526219999992</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2192,7 +2198,7 @@
         <v>202</v>
       </c>
       <c r="E61" s="10">
-        <v>11344.333000000001</v>
+        <v>71923.071219999998</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,7 +2215,7 @@
         <v>202</v>
       </c>
       <c r="E62" s="10">
-        <v>633</v>
+        <v>4013.22</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2226,7 +2232,7 @@
         <v>202</v>
       </c>
       <c r="E63" s="10">
-        <v>437</v>
+        <v>2770.58</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,7 +2249,7 @@
         <v>202</v>
       </c>
       <c r="E64" s="10">
-        <v>264</v>
+        <v>1673.76</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2260,7 +2266,7 @@
         <v>202</v>
       </c>
       <c r="E65" s="10">
-        <v>278</v>
+        <v>1762.52</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2277,7 +2283,7 @@
         <v>202</v>
       </c>
       <c r="E66" s="10">
-        <v>1477.75</v>
+        <v>12491.420749999999</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2294,7 +2300,7 @@
         <v>202</v>
       </c>
       <c r="E67" s="10">
-        <v>1234.0999999999999</v>
+        <v>10431.847299999998</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2311,7 +2317,7 @@
         <v>202</v>
       </c>
       <c r="E68" s="10">
-        <v>1051.45</v>
+        <v>8888.9583000000002</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2328,7 +2334,7 @@
         <v>202</v>
       </c>
       <c r="E69" s="10">
-        <v>1478</v>
+        <v>12495.012000000001</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2345,7 +2351,7 @@
         <v>202</v>
       </c>
       <c r="E70" s="10">
-        <v>1558</v>
+        <v>13171.332</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2362,7 +2368,7 @@
         <v>202</v>
       </c>
       <c r="E71" s="10">
-        <v>3648.1</v>
+        <v>30841.037400000001</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2379,7 +2385,7 @@
         <v>202</v>
       </c>
       <c r="E72" s="10">
-        <v>1506.15</v>
+        <v>12732.992100000001</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2396,7 +2402,7 @@
         <v>202</v>
       </c>
       <c r="E73" s="10">
-        <v>405</v>
+        <v>3423.6675</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2413,7 +2419,7 @@
         <v>202</v>
       </c>
       <c r="E74" s="10">
-        <v>571.20000000000005</v>
+        <v>4828.6392000000005</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2430,7 +2436,7 @@
         <v>202</v>
       </c>
       <c r="E75" s="10">
-        <v>2308</v>
+        <v>19511.832000000002</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2447,7 +2453,7 @@
         <v>202</v>
       </c>
       <c r="E76" s="10">
-        <v>1461.05</v>
+        <v>12350.255649999999</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2464,7 +2470,7 @@
         <v>202</v>
       </c>
       <c r="E77" s="10">
-        <v>2313</v>
+        <v>11731.536</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2481,7 +2487,7 @@
         <v>202</v>
       </c>
       <c r="E78" s="10">
-        <v>4006</v>
+        <v>20318.432000000001</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2498,7 +2504,7 @@
         <v>202</v>
       </c>
       <c r="E79" s="10">
-        <v>3334.2489999999998</v>
+        <v>16911.310927999999</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2515,7 +2521,7 @@
         <v>202</v>
       </c>
       <c r="E80" s="10">
-        <v>9083</v>
+        <v>46068.976000000002</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2532,7 +2538,7 @@
         <v>202</v>
       </c>
       <c r="E81" s="10">
-        <v>872.63300000000004</v>
+        <v>5532.4932200000003</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2549,7 +2555,7 @@
         <v>202</v>
       </c>
       <c r="E82" s="10">
-        <v>2934.25</v>
+        <v>18603.145</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2566,7 +2572,7 @@
         <v>202</v>
       </c>
       <c r="E83" s="10">
-        <v>3132.5</v>
+        <v>19860.05</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2583,7 +2589,7 @@
         <v>202</v>
       </c>
       <c r="E84" s="10">
-        <v>1234.58</v>
+        <v>6261.9148591435187</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,7 +2606,7 @@
         <v>202</v>
       </c>
       <c r="E85" s="10">
-        <v>335</v>
+        <v>1699.1539453199296</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2617,7 +2623,7 @@
         <v>202</v>
       </c>
       <c r="E86" s="10">
-        <v>515.83299999999997</v>
+        <v>2616.3572450036277</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2634,7 +2640,7 @@
         <v>202</v>
       </c>
       <c r="E87" s="10">
-        <v>1911.1660000000002</v>
+        <v>9693.4339520000012</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,7 +2657,7 @@
         <v>202</v>
       </c>
       <c r="E88" s="10">
-        <v>1693.75</v>
+        <v>8590.7000000000007</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2668,7 +2674,7 @@
         <v>202</v>
       </c>
       <c r="E89" s="10">
-        <v>1186.6659999999999</v>
+        <v>6018.7699519999996</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,7 +2691,7 @@
         <v>202</v>
       </c>
       <c r="E90" s="10">
-        <v>1476.6660000000002</v>
+        <v>7489.6499520000007</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2702,7 +2708,7 @@
         <v>202</v>
       </c>
       <c r="E91" s="10">
-        <v>3623</v>
+        <v>18375.856</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2719,10 +2725,11 @@
         <v>202</v>
       </c>
       <c r="E92" s="10">
-        <v>5504.0830000000005</v>
+        <v>27916.708976000002</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E92" xr:uid="{29E15F45-4001-42A6-A8B1-02399349643A}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>